--- a/supermag/Обработки/Рабочие/Final/СопастовлениеДокументов.xlsx
+++ b/supermag/Обработки/Рабочие/Final/СопастовлениеДокументов.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="21">
   <si>
     <t>ДОКУМЕНТ</t>
   </si>
@@ -73,6 +73,12 @@
   </si>
   <si>
     <t>Отчет о розничных продажах</t>
+  </si>
+  <si>
+    <t>Оприходование</t>
+  </si>
+  <si>
+    <t>Списание</t>
   </si>
 </sst>
 </file>
@@ -455,7 +461,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -519,7 +525,7 @@
         <v>8</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -533,7 +539,7 @@
         <v>10</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -575,7 +581,7 @@
         <v>15</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">

--- a/supermag/Обработки/Рабочие/Final/СопастовлениеДокументов.xlsx
+++ b/supermag/Обработки/Рабочие/Final/СопастовлениеДокументов.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="19">
   <si>
     <t>ДОКУМЕНТ</t>
   </si>
@@ -73,12 +73,6 @@
   </si>
   <si>
     <t>Отчет о розничных продажах</t>
-  </si>
-  <si>
-    <t>Оприходование</t>
-  </si>
-  <si>
-    <t>Списание</t>
   </si>
 </sst>
 </file>
@@ -461,7 +455,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -525,7 +519,7 @@
         <v>8</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -539,7 +533,7 @@
         <v>10</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -581,7 +575,7 @@
         <v>15</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
